--- a/PracticalProject/Documentation/Risk Assessment.xlsx
+++ b/PracticalProject/Documentation/Risk Assessment.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ridwa\Desktop\QA\QA Community\Projects\Software Core - Fundamental Project\IMS-22EnableMay2\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ridwa\Desktop\QA\QA Community\Projects\Software Core - Practical Project\Back-End\PracticalProject\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{690E418A-B7F7-4349-8210-E4215C08BDC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF475DF-6F41-4046-B331-A61FC5FEB6F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,9 +57,6 @@
     <t>Risk Level</t>
   </si>
   <si>
-    <t>Data Breach</t>
-  </si>
-  <si>
     <t>Hardware Failure</t>
   </si>
   <si>
@@ -87,70 +84,73 @@
     <t>Employ a plan B - either by having access to a second means of equipment or performing regular back-ups on the cloud.</t>
   </si>
   <si>
-    <t>Minimises the disruption that is caused by hardware failure and if regularly backed up, then it reduces the impact a corrupt file could have. It also improves data integrity; the accuracy and consistency of data stored.</t>
-  </si>
-  <si>
     <t>Machine failure of personal equipment, i.e. PC/Laptop, could lead to a corruption of local files. Could also increase dwell time (unproductivity) if someone doesn't have access to a second machine.</t>
   </si>
   <si>
-    <t xml:space="preserve">No internet connectivity will ensure you can't access remote files or create backups on cloud hosted websites. </t>
-  </si>
-  <si>
     <t>Reduces the severity and inconvenience caused by the loss of internet connectivity.</t>
   </si>
   <si>
-    <t>Can lead to a setback with the project, illness can vary between people to people. Response is not always the same. Can lead to a loss in development time on the IMS.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ensuring you take the right medications prescribed and employ a healthy eating habit. Working in a clean environment and regularly cleaning hands. </t>
   </si>
   <si>
-    <t>Giving oneself the best possible chance of eradicating bacteria or preventing germs from being spread, or even other disease and illnesses related to food, such as food poisoning.</t>
-  </si>
-  <si>
-    <t>Employing data confidentiality and data integrity by limiting the amount of information stored. Using a means of encryption to hide stored data in case of a breach. Encryption has the potential to ensure data cannot be accessed.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To provide customers and clients with a sense of security and ensure that GDPR regulations are adhered to. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Power cuts can lead to a loss of data, Can come without a warning and prevent one from accessing their pc's. It's a risk out of one's control and will need to be investigated by a third party, i.e. electricians. </t>
   </si>
   <si>
-    <t>Mitigating this type of risk could be to save work frequently, making use of the FBM and pushing up to Git regularly. Another way could be to have external power banks and chargers to use temporarily during downtime.</t>
-  </si>
-  <si>
-    <t>Minimises the disruptions caused and since it is a risk out of our scope, having external power can reduce downtime and allow development on an object to continue.</t>
-  </si>
-  <si>
-    <t>In the general sense, loss of data can occur from human error / accidental deletion / overwritting fully functioning codes. Data loss can also occur through third party softwares or people such as hackers. Can lead to data being comprimised and manipulated.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Making frequent implementation of version control to upload and track data so that it can be recoverable. Using cloud hosted sites to store data such as onedrive. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ensures minimal amount of time to be consumed in the event of data being lost. </t>
-  </si>
-  <si>
     <t>Software Knowledge/Ability</t>
   </si>
   <si>
     <t xml:space="preserve">Writing efficient and fully functioning codes is dependent on one's ability and understanding of the programming language being used. </t>
   </si>
   <si>
-    <t>Asking trainer for assistance when needed, scouring the net / reading through a manual to understand what each function of the coding does. Making use of external learning sites such as Udemy, Youtube even to bridge the gap in knowledge.</t>
-  </si>
-  <si>
     <t xml:space="preserve">To make oneself a confident developer, ensuring efficiency in one's coding. Having the mindset and ability to problem solve  whether it be finding a way to make this function or resolve that error. </t>
   </si>
   <si>
-    <t>Since an IMS is being built, it is of utmost importance that data from the inventory system isn't breached. Could contain personal information such as one's names, contact numbers or even home address.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Employ the Feature-Branch Model (FBM) to organise your work and only merging the branches to your development branch when you feel like you reached a milestone/checkpoint/a working completion of a feature. </t>
   </si>
   <si>
-    <t>Having the means to a facility that offers reliable internet connection such as a café/library/academic environment could be employed to mitigate the risk. Changing Network providers or asking for a network engineer to resolve the issue. If the work is to be done in a secure environment then using internet hotspot from a personal mobile phone is preferred.</t>
+    <t>Contacting the electricity provider to restore service, another way could be to have external power banks and chargers to use temporarily during downtime.</t>
+  </si>
+  <si>
+    <t>Minimises the disruptions caused and since it is a risk out of our scope, having external power can reduce downtime and allow development to continue.</t>
+  </si>
+  <si>
+    <t>Asking trainer for assistance when needed, scouring the net to assist with understanding. Making use of QA resources or external learning sites such as Udemy and Youtube to bridge the gap in knowledge.</t>
+  </si>
+  <si>
+    <t>Minimises the disruption caused by hardware failure due to regular backups. Further reduces the impact of a corrupt file and  improves data integrity; the accuracy and consistency of the data stored.</t>
+  </si>
+  <si>
+    <t>Internet connectivity impacts the accessibility of remote files on cloud hosted websites. And prevents creating remote backups of your work.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attending facilities offering reliable internet connection such as cafés/librararies. Changing Network providers or asking for a network engineer to resolve the issue. </t>
+  </si>
+  <si>
+    <t>Can lead to a setback with the project, illness can vary between people to people. Response is not always the same. Can lead to a loss in development time on the web application.</t>
+  </si>
+  <si>
+    <t>Cleaning your work surface regularly to prevent germs from being spread.</t>
+  </si>
+  <si>
+    <t>General sense; loss of data occurring from human error / accidental deletion / overwritting fully functioning codes / Hacking; Data Manipulation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Making frequent implementation of version control to upload and track data so that it can be recovered. Using cloud hosted sites to store data such as onedrive. </t>
+  </si>
+  <si>
+    <t>Ensures minimal down time in the event of data being lost. And an easier recoverey process.</t>
+  </si>
+  <si>
+    <t>Performing Backend testing; Junit, Mockito, and Front end testing; Selenium and using a statistical analysis tool like SonarQube to identify vulnerabilities and bugs within the application.</t>
+  </si>
+  <si>
+    <t>Poor optimisation of mvp functionality can end up making it run slow. Bugs can prevent the application from working completely.</t>
+  </si>
+  <si>
+    <t>Bugs - Functionality/Useability</t>
+  </si>
+  <si>
+    <t>To have a fully functioning MVP ready for production.</t>
   </si>
 </sst>
 </file>
@@ -225,7 +225,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -264,8 +264,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -547,21 +550,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:O17"/>
+  <dimension ref="B2:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="21.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.08984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.81640625" customWidth="1"/>
-    <col min="4" max="4" width="32" customWidth="1"/>
+    <col min="4" max="4" width="36.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="33.54296875" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.54296875" customWidth="1"/>
+    <col min="6" max="6" width="12.7265625" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" customWidth="1"/>
+    <col min="8" max="8" width="12.7265625" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
     <col min="11" max="11" width="3.90625" customWidth="1"/>
     <col min="12" max="12" width="4.453125" customWidth="1"/>
@@ -640,41 +643,64 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="2:15">
+    <row r="8" spans="2:15">
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" ht="85.5" customHeight="1">
       <c r="B9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15" ht="110.5" customHeight="1">
+        <v>40</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" ht="94.5" customHeight="1">
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>0</v>
@@ -686,87 +712,87 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:15" ht="118.5" customHeight="1">
+    <row r="11" spans="2:15" ht="95.5" customHeight="1">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>2</v>
+      <c r="F11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>0</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:15" ht="173.5" customHeight="1">
+    <row r="12" spans="2:15" ht="101.5">
       <c r="B12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" ht="79.5" customHeight="1">
+      <c r="B13" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C13" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" ht="95.5" customHeight="1">
+      <c r="B14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15" ht="101.5">
-      <c r="B13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15" ht="117.5" customHeight="1">
-      <c r="B14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>29</v>
-      </c>
       <c r="D14" s="14" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>0</v>
@@ -780,70 +806,47 @@
     </row>
     <row r="15" spans="2:15" ht="96" customHeight="1">
       <c r="B15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" ht="97" customHeight="1">
+      <c r="B16" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D16" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15" ht="127.5" customHeight="1">
-      <c r="B16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>34</v>
-      </c>
       <c r="F16" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G16" s="4" t="s">
-        <v>2</v>
+      <c r="G16" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" ht="131" customHeight="1">
-      <c r="B17" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="H17" s="3" t="s">
         <v>2</v>
       </c>
     </row>
